--- a/average_satisfaction_random_g4.xlsx
+++ b/average_satisfaction_random_g4.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giorg\Downloads\multiagentsystems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtzortzi\Downloads\MA_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33815E8E-481F-4A95-BA79-0BACEA88879B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CCA0F5-B591-41B4-A084-20F163623F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{17BD8631-7F4B-4B6B-BBC5-0434F77521F8}"/>
+    <workbookView xWindow="3060" yWindow="1824" windowWidth="17280" windowHeight="8964" xr2:uid="{C84E71A4-B7B7-4C14-BD0A-2593DFF108ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,7 +66,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -377,7 +377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206A4E0A-CA26-448F-9950-FF579769B7BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C1D22A-76D5-4CE8-8382-E6A82E5C39E3}">
   <dimension ref="A1:CV1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -388,304 +388,304 @@
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0.95395263757981508</v>
+        <v>0.79072247505936955</v>
       </c>
       <c r="B1">
-        <v>0.84386728593527582</v>
+        <v>0.71617873374390506</v>
       </c>
       <c r="C1">
-        <v>0.70232918284932178</v>
+        <v>0.67585923639433754</v>
       </c>
       <c r="D1">
-        <v>0.8396335813133915</v>
+        <v>0.75515146591511861</v>
       </c>
       <c r="E1">
-        <v>0.80391978114130591</v>
+        <v>0.84811129444537414</v>
       </c>
       <c r="F1">
-        <v>0.7759309758846904</v>
+        <v>0.72944567588437514</v>
       </c>
       <c r="G1">
-        <v>0.74539541890851024</v>
+        <v>0.77303089195779806</v>
       </c>
       <c r="H1">
-        <v>0.77619627277901126</v>
+        <v>0.85931790607754766</v>
       </c>
       <c r="I1">
-        <v>0.81382429024472791</v>
+        <v>0.91869673063537183</v>
       </c>
       <c r="J1">
-        <v>0.83587397591827428</v>
+        <v>0.76806159746023395</v>
       </c>
       <c r="K1">
-        <v>0.73072149071416204</v>
+        <v>0.73327366092930091</v>
       </c>
       <c r="L1">
-        <v>1.079980582564914</v>
+        <v>0.95459443244605424</v>
       </c>
       <c r="M1">
-        <v>0.88845258874491007</v>
+        <v>0.7544749967916371</v>
       </c>
       <c r="N1">
-        <v>0.74692255189659895</v>
+        <v>0.81047123712888458</v>
       </c>
       <c r="O1">
-        <v>0.8752374969334078</v>
+        <v>0.81271784438253947</v>
       </c>
       <c r="P1">
-        <v>0.74685710919405923</v>
+        <v>0.82420851863512967</v>
       </c>
       <c r="Q1">
-        <v>0.91450669731732082</v>
+        <v>0.72358846824790202</v>
       </c>
       <c r="R1">
-        <v>0.71873290908154852</v>
+        <v>0.80952963818667223</v>
       </c>
       <c r="S1">
-        <v>0.733353837078351</v>
+        <v>0.76518233220813292</v>
       </c>
       <c r="T1">
-        <v>0.80893857692734128</v>
+        <v>0.81814324624824875</v>
       </c>
       <c r="U1">
-        <v>0.87573432429433673</v>
+        <v>0.70372024465429561</v>
       </c>
       <c r="V1">
-        <v>0.96258141261805297</v>
+        <v>0.85786684421474979</v>
       </c>
       <c r="W1">
-        <v>0.78629503475223406</v>
+        <v>0.89398929953222572</v>
       </c>
       <c r="X1">
-        <v>0.75065186969383546</v>
+        <v>0.8485574347483118</v>
       </c>
       <c r="Y1">
-        <v>0.76908545888157498</v>
+        <v>0.84893410796963398</v>
       </c>
       <c r="Z1">
-        <v>0.7902495204417912</v>
+        <v>0.90153458629584438</v>
       </c>
       <c r="AA1">
-        <v>0.77681323227046928</v>
+        <v>0.82845904265156833</v>
       </c>
       <c r="AB1">
-        <v>0.86501306669474987</v>
+        <v>0.82795192441592003</v>
       </c>
       <c r="AC1">
-        <v>0.75748339041563884</v>
+        <v>0.71145367176733509</v>
       </c>
       <c r="AD1">
-        <v>0.83532913867174785</v>
+        <v>0.67805103735622241</v>
       </c>
       <c r="AE1">
-        <v>0.70236890832935406</v>
+        <v>0.90964350662675064</v>
       </c>
       <c r="AF1">
-        <v>0.79732084485227239</v>
+        <v>0.75749735062215462</v>
       </c>
       <c r="AG1">
-        <v>0.78328441144382188</v>
+        <v>0.7595350315238848</v>
       </c>
       <c r="AH1">
-        <v>0.67820939356042842</v>
+        <v>0.77190166146553929</v>
       </c>
       <c r="AI1">
-        <v>0.83637052301527637</v>
+        <v>0.80993848958879988</v>
       </c>
       <c r="AJ1">
-        <v>0.93210803530223352</v>
+        <v>0.83496893982483766</v>
       </c>
       <c r="AK1">
-        <v>0.75016596669000013</v>
+        <v>0.72826688476694124</v>
       </c>
       <c r="AL1">
-        <v>0.86134782473820271</v>
+        <v>0.86610656982071232</v>
       </c>
       <c r="AM1">
-        <v>0.81037576665553746</v>
+        <v>0.72180050380099081</v>
       </c>
       <c r="AN1">
-        <v>0.82185923090572932</v>
+        <v>0.69246934506540192</v>
       </c>
       <c r="AO1">
-        <v>0.83198756244837146</v>
+        <v>0.80568794680441125</v>
       </c>
       <c r="AP1">
-        <v>0.80706222677726536</v>
+        <v>0.74999997890515469</v>
       </c>
       <c r="AQ1">
-        <v>0.83046508990736145</v>
+        <v>0.91034537244786762</v>
       </c>
       <c r="AR1">
-        <v>0.81813288397637507</v>
+        <v>0.83813779183053538</v>
       </c>
       <c r="AS1">
-        <v>0.82618514243907537</v>
+        <v>0.94714590688199995</v>
       </c>
       <c r="AT1">
-        <v>0.79389406244935778</v>
+        <v>0.81224868027273689</v>
       </c>
       <c r="AU1">
-        <v>0.86673967308467215</v>
+        <v>0.71640782943042292</v>
       </c>
       <c r="AV1">
-        <v>0.82390891044958425</v>
+        <v>0.78928966785848309</v>
       </c>
       <c r="AW1">
-        <v>0.76163243052980134</v>
+        <v>0.74657501001778726</v>
       </c>
       <c r="AX1">
-        <v>0.79446878778825425</v>
+        <v>0.64760534874114073</v>
       </c>
       <c r="AY1">
-        <v>0.83671143959431704</v>
+        <v>0.69101074077981728</v>
       </c>
       <c r="AZ1">
-        <v>0.8122316787732895</v>
+        <v>0.9344522768453164</v>
       </c>
       <c r="BA1">
-        <v>0.93743576397776851</v>
+        <v>0.78446544063625967</v>
       </c>
       <c r="BB1">
-        <v>0.7977772963487626</v>
+        <v>0.82576641188076394</v>
       </c>
       <c r="BC1">
-        <v>0.77607986446858013</v>
+        <v>0.69929833485777981</v>
       </c>
       <c r="BD1">
-        <v>0.73445123039454685</v>
+        <v>0.82366344467925323</v>
       </c>
       <c r="BE1">
-        <v>0.92402050007799941</v>
+        <v>0.79590146385248961</v>
       </c>
       <c r="BF1">
-        <v>0.80318357876505897</v>
+        <v>0.79279026252547413</v>
       </c>
       <c r="BG1">
-        <v>0.78084098557231241</v>
+        <v>0.88984704529035263</v>
       </c>
       <c r="BH1">
-        <v>0.80883388029414327</v>
+        <v>0.74313131727828607</v>
       </c>
       <c r="BI1">
-        <v>0.96545996256542543</v>
+        <v>0.7603020552713885</v>
       </c>
       <c r="BJ1">
-        <v>0.78204468689175133</v>
+        <v>0.73596960310778747</v>
       </c>
       <c r="BK1">
-        <v>0.75671414767550549</v>
+        <v>0.87228076800418608</v>
       </c>
       <c r="BL1">
-        <v>0.88797741358327609</v>
+        <v>0.85694536679024247</v>
       </c>
       <c r="BM1">
-        <v>0.77445106114326867</v>
+        <v>0.6769440418701349</v>
       </c>
       <c r="BN1">
-        <v>0.72222738109336382</v>
+        <v>0.92519335499247857</v>
       </c>
       <c r="BO1">
-        <v>0.7487585070835785</v>
+        <v>0.73986123494596001</v>
       </c>
       <c r="BP1">
-        <v>0.80582778365090202</v>
+        <v>0.91319443710795767</v>
       </c>
       <c r="BQ1">
-        <v>0.91931392689586178</v>
+        <v>0.76644723320826391</v>
       </c>
       <c r="BR1">
-        <v>0.70560707701275838</v>
+        <v>0.78150345843771396</v>
       </c>
       <c r="BS1">
-        <v>0.8770176519931715</v>
+        <v>0.80159724949499833</v>
       </c>
       <c r="BT1">
-        <v>0.76669450584095</v>
+        <v>0.86431410774803563</v>
       </c>
       <c r="BU1">
-        <v>0.87142710262091527</v>
+        <v>0.83644412248040645</v>
       </c>
       <c r="BV1">
-        <v>0.88377259026460453</v>
+        <v>0.67919724541905635</v>
       </c>
       <c r="BW1">
-        <v>0.83019725501063824</v>
+        <v>0.81246158915034461</v>
       </c>
       <c r="BX1">
-        <v>0.94460396463379881</v>
+        <v>0.82158988606013528</v>
       </c>
       <c r="BY1">
-        <v>0.79122511458726852</v>
+        <v>0.82534032494802534</v>
       </c>
       <c r="BZ1">
-        <v>0.86926536515191211</v>
+        <v>0.80064493327610986</v>
       </c>
       <c r="CA1">
-        <v>0.8578639037118565</v>
+        <v>0.94879746767254802</v>
       </c>
       <c r="CB1">
-        <v>0.83931701522060431</v>
+        <v>0.89320337509511538</v>
       </c>
       <c r="CC1">
-        <v>0.82046927543907311</v>
+        <v>0.74283513074978191</v>
       </c>
       <c r="CD1">
-        <v>0.81201971424936747</v>
+        <v>0.76043715717542582</v>
       </c>
       <c r="CE1">
-        <v>0.87330847437412751</v>
+        <v>0.84690993028124151</v>
       </c>
       <c r="CF1">
-        <v>0.79938069724406557</v>
+        <v>0.73874686207560469</v>
       </c>
       <c r="CG1">
-        <v>0.92795739899885921</v>
+        <v>0.82640909260109241</v>
       </c>
       <c r="CH1">
-        <v>0.92574144547207238</v>
+        <v>0.75569950905328931</v>
       </c>
       <c r="CI1">
-        <v>0.74110018145392353</v>
+        <v>0.7804836808668435</v>
       </c>
       <c r="CJ1">
-        <v>0.77804677260885935</v>
+        <v>0.82627993786429266</v>
       </c>
       <c r="CK1">
-        <v>0.78112369233063561</v>
+        <v>0.83792302175120026</v>
       </c>
       <c r="CL1">
-        <v>0.76594850253749525</v>
+        <v>0.7112928367701602</v>
       </c>
       <c r="CM1">
-        <v>0.78257522178415417</v>
+        <v>0.80306203582752356</v>
       </c>
       <c r="CN1">
-        <v>0.87052564976687619</v>
+        <v>0.75651637093680058</v>
       </c>
       <c r="CO1">
-        <v>0.80624181896368585</v>
+        <v>0.71402153107301591</v>
       </c>
       <c r="CP1">
-        <v>0.76447682374916126</v>
+        <v>0.70733780136071656</v>
       </c>
       <c r="CQ1">
-        <v>0.90182399113790745</v>
+        <v>0.79242222884167446</v>
       </c>
       <c r="CR1">
-        <v>0.7546192099280874</v>
+        <v>0.79474890858894565</v>
       </c>
       <c r="CS1">
-        <v>0.87783318363489504</v>
+        <v>0.91330651589340806</v>
       </c>
       <c r="CT1">
-        <v>0.78019164596549961</v>
+        <v>0.79806559190386983</v>
       </c>
       <c r="CU1">
-        <v>0.77865036656719799</v>
+        <v>0.82221880138103742</v>
       </c>
       <c r="CV1">
-        <v>0.91444619539458238</v>
+        <v>0.81438327762369622</v>
       </c>
     </row>
   </sheetData>
